--- a/REGULAR/DIMAPILIS, JONNA.xlsx
+++ b/REGULAR/DIMAPILIS, JONNA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16C6B0-D3BF-45BC-87AD-D51BDE28B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="361">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1105,19 +1103,34 @@
   </si>
   <si>
     <t>Mourning 5/3/2007</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE IV</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,9 +1513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1582,7 +1592,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1599,7 +1609,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1614,7 +1624,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1656,7 +1666,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1716,7 +1726,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1729,7 +1739,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1744,7 +1754,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1762,7 +1772,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1779,7 +1789,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1798,7 +1808,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1815,7 +1825,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1831,7 +1841,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1848,7 +1858,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1867,7 +1877,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1884,7 +1894,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1900,7 +1910,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1957,7 +1967,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2002,7 +2012,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2055,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2119,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2179,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2245,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2308,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2406,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2455,7 +2465,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2530,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2573,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2648,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2834,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2890,7 +2900,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2958,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3024,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3080,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3145,7 +3155,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3198,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3264,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3320,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,7 +3418,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3481,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3530,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3537,25 +3547,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K608" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K609" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3567,13 +3577,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3582,14 +3592,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3640,7 +3650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3692,7 +3702,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3886,24 +3896,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="Z62" sqref="Z62"/>
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3911,19 +3921,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K608"/>
+  <dimension ref="A2:K609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A574" activePane="bottomLeft"/>
-      <selection activeCell="K8" sqref="K8"/>
-      <selection pane="bottomLeft" activeCell="B581" sqref="B581"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A170" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3938,64 +3948,70 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4003,7 +4019,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4016,24 +4032,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4076,8 +4092,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>237.13500000000008</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>243.38500000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4086,13 +4102,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>283.625</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>289.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -4110,7 +4126,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>34608</v>
       </c>
@@ -4130,7 +4146,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>34639</v>
@@ -4151,7 +4167,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4172,7 +4188,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>56</v>
       </c>
@@ -4190,7 +4206,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>34700</v>
       </c>
@@ -4210,7 +4226,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4231,7 +4247,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4252,7 +4268,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4273,12 +4289,12 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>34820</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="13">
@@ -4300,7 +4316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4321,7 +4337,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4342,7 +4358,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4363,7 +4379,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4384,7 +4400,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4405,7 +4421,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4426,12 +4442,12 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>35034</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="13">
@@ -4453,7 +4469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>43</v>
       </c>
@@ -4475,7 +4491,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>35065</v>
       </c>
@@ -4495,7 +4511,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4516,7 +4532,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A38" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4537,7 +4553,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4558,7 +4574,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4579,7 +4595,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4600,7 +4616,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4621,7 +4637,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4642,7 +4658,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4667,7 +4683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4688,7 +4704,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4709,7 +4725,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>35400</v>
@@ -4732,7 +4748,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4754,7 +4770,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>47</v>
       </c>
@@ -4772,7 +4788,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>35431</v>
       </c>
@@ -4792,7 +4808,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4813,7 +4829,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -4834,7 +4850,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4855,7 +4871,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4880,7 +4896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4898,7 +4914,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A46,1)</f>
         <v>35582</v>
@@ -4919,7 +4935,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4940,7 +4956,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4961,7 +4977,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4988,7 +5004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>52</v>
@@ -5010,7 +5026,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5031,7 +5047,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>35735</v>
@@ -5052,7 +5068,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5075,11 +5091,11 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="51">
+      <c r="K55" s="50">
         <v>35532</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>62</v>
@@ -5099,7 +5115,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>63</v>
       </c>
@@ -5117,7 +5133,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>35796</v>
       </c>
@@ -5143,7 +5159,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>35827</v>
@@ -5164,7 +5180,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A70" si="3">EDATE(A59,1)</f>
         <v>35855</v>
@@ -5187,11 +5203,11 @@
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="51">
+      <c r="K60" s="50">
         <v>36132</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5212,7 +5228,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5233,7 +5249,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5254,7 +5270,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5275,7 +5291,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5298,7 +5314,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>36039</v>
@@ -5321,7 +5337,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5344,7 +5360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -5362,7 +5378,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>36100</v>
@@ -5383,7 +5399,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5410,7 +5426,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>73</v>
       </c>
@@ -5428,7 +5444,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36161</v>
       </c>
@@ -5454,7 +5470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A72,1)</f>
         <v>36192</v>
@@ -5475,7 +5491,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" ref="A74:A85" si="4">EDATE(A73,1)</f>
         <v>36220</v>
@@ -5496,7 +5512,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5517,7 +5533,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>36281</v>
@@ -5538,7 +5554,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>36312</v>
@@ -5559,7 +5575,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36342</v>
@@ -5580,7 +5596,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5605,7 +5621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5623,7 +5639,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36404</v>
@@ -5646,7 +5662,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5664,7 +5680,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>36434</v>
@@ -5685,7 +5701,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5712,7 +5728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>36495</v>
@@ -5737,7 +5753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5755,7 +5771,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>80</v>
       </c>
@@ -5773,7 +5789,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -5793,7 +5809,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -5814,7 +5830,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A100" si="5">EDATE(A89,1)</f>
         <v>36586</v>
@@ -5835,7 +5851,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -5856,7 +5872,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -5881,7 +5897,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -5902,7 +5918,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -5927,7 +5943,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -5948,7 +5964,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -5969,7 +5985,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -5990,7 +6006,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>72</v>
@@ -6008,11 +6024,11 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="52" t="s">
+      <c r="K98" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f>EDATE(A97,1)</f>
         <v>36831</v>
@@ -6033,7 +6049,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6054,7 +6070,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
         <v>84</v>
       </c>
@@ -6072,7 +6088,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>36892</v>
       </c>
@@ -6092,7 +6108,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>36923</v>
@@ -6113,7 +6129,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" ref="A104:A112" si="6">EDATE(A103,1)</f>
         <v>36951</v>
@@ -6138,7 +6154,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6163,7 +6179,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6188,7 +6204,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6209,7 +6225,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6232,7 +6248,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6250,7 +6266,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>37104</v>
@@ -6275,7 +6291,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6300,7 +6316,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6325,7 +6341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -6343,7 +6359,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A112,1)</f>
         <v>37196</v>
@@ -6368,7 +6384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>92</v>
@@ -6390,7 +6406,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6415,7 +6431,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="48" t="s">
         <v>94</v>
       </c>
@@ -6433,7 +6449,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>37257</v>
       </c>
@@ -6453,7 +6469,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A118,1)</f>
         <v>37288</v>
@@ -6478,7 +6494,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A127" si="7">EDATE(A119,1)</f>
         <v>37316</v>
@@ -6499,7 +6515,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6520,7 +6536,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6545,7 +6561,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6566,7 +6582,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6591,7 +6607,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6616,7 +6632,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6641,7 +6657,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6666,7 +6682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>100</v>
@@ -6688,7 +6704,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A127,1)</f>
         <v>37561</v>
@@ -6713,7 +6729,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>49</v>
@@ -6735,7 +6751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>37591</v>
@@ -6760,7 +6776,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>103</v>
       </c>
@@ -6778,7 +6794,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37622</v>
       </c>
@@ -6798,7 +6814,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>37653</v>
@@ -6819,7 +6835,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" ref="A135:A145" si="8">EDATE(A134,1)</f>
         <v>37681</v>
@@ -6840,7 +6856,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="8"/>
         <v>37712</v>
@@ -6861,7 +6877,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>37742</v>
@@ -6882,7 +6898,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="8"/>
         <v>37773</v>
@@ -6903,7 +6919,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -6924,7 +6940,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>37834</v>
@@ -6947,7 +6963,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -6965,7 +6981,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37865</v>
@@ -6988,7 +7004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -7006,7 +7022,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37895</v>
@@ -7027,7 +7043,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>37926</v>
@@ -7052,7 +7068,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -7070,7 +7086,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A145,1)</f>
         <v>37956</v>
@@ -7091,7 +7107,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>107</v>
       </c>
@@ -7109,7 +7125,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>37987</v>
       </c>
@@ -7129,7 +7145,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>38018</v>
@@ -7150,7 +7166,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" ref="A151:A157" si="9">EDATE(A150,1)</f>
         <v>38047</v>
@@ -7171,7 +7187,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="9"/>
         <v>38078</v>
@@ -7192,7 +7208,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -7213,7 +7229,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38139</v>
@@ -7234,7 +7250,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38169</v>
@@ -7255,7 +7271,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38200</v>
@@ -7276,7 +7292,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f t="shared" si="9"/>
         <v>38231</v>
@@ -7301,7 +7317,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -7319,7 +7335,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>38261</v>
@@ -7342,7 +7358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -7360,7 +7376,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38292</v>
@@ -7383,7 +7399,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -7401,7 +7417,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f>EDATE(A161,1)</f>
         <v>38322</v>
@@ -7422,7 +7438,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48" t="s">
         <v>111</v>
       </c>
@@ -7440,7 +7456,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
         <v>38353</v>
       </c>
@@ -7460,7 +7476,7 @@
       <c r="J165" s="12"/>
       <c r="K165" s="15"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A165,1)</f>
         <v>38384</v>
@@ -7481,7 +7497,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" ref="A167:A173" si="10">EDATE(A166,1)</f>
         <v>38412</v>
@@ -7502,7 +7518,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>38443</v>
@@ -7523,7 +7539,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>38473</v>
@@ -7544,7 +7560,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -7565,7 +7581,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>38534</v>
@@ -7586,7 +7602,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -7607,7 +7623,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -7630,7 +7646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="42">
@@ -7648,7 +7664,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38626</v>
@@ -7671,7 +7687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="42">
@@ -7689,7 +7705,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>38657</v>
@@ -7710,7 +7726,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>114</v>
@@ -7732,7 +7748,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f>EDATE(A177,1)</f>
         <v>38687</v>
@@ -7753,7 +7769,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>116</v>
       </c>
@@ -7771,7 +7787,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>38718</v>
       </c>
@@ -7791,7 +7807,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>38749</v>
@@ -7812,7 +7828,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" ref="A183:A196" si="11">EDATE(A182,1)</f>
         <v>38777</v>
@@ -7833,7 +7849,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="11"/>
         <v>38808</v>
@@ -7854,7 +7870,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="11"/>
         <v>38838</v>
@@ -7875,7 +7891,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="11"/>
         <v>38869</v>
@@ -7896,7 +7912,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -7917,11 +7933,11 @@
       </c>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="51">
+      <c r="K187" s="50">
         <v>38844</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>117</v>
@@ -7943,7 +7959,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A187,1)</f>
         <v>38930</v>
@@ -7968,7 +7984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>119</v>
@@ -7990,7 +8006,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f>EDATE(A189,1)</f>
         <v>38961</v>
@@ -8013,7 +8029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>121</v>
@@ -8035,7 +8051,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>67</v>
@@ -8055,7 +8071,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>124</v>
@@ -8077,7 +8093,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A191,1)</f>
         <v>38991</v>
@@ -8098,7 +8114,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -8117,11 +8133,11 @@
       <c r="H196" s="39"/>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="54" t="s">
+      <c r="K196" s="53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>126</v>
@@ -8143,7 +8159,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>39052</v>
@@ -8164,11 +8180,11 @@
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="51">
+      <c r="K198" s="50">
         <v>39033</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -8190,7 +8206,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="48" t="s">
         <v>128</v>
       </c>
@@ -8208,7 +8224,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39083</v>
       </c>
@@ -8232,7 +8248,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A201,1)</f>
         <v>39114</v>
@@ -8255,7 +8271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>130</v>
@@ -8277,7 +8293,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>39142</v>
@@ -8298,11 +8314,11 @@
       </c>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="51">
+      <c r="K204" s="50">
         <v>39297</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>131</v>
@@ -8324,7 +8340,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>39173</v>
@@ -8349,7 +8365,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A221" si="12">EDATE(A206,1)</f>
         <v>39203</v>
@@ -8374,7 +8390,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>61</v>
@@ -8396,7 +8412,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>78</v>
@@ -8416,7 +8432,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>135</v>
@@ -8438,7 +8454,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A207,1)</f>
         <v>39234</v>
@@ -8459,11 +8475,11 @@
       </c>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="51">
+      <c r="K211" s="50">
         <v>39300</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>67</v>
@@ -8483,7 +8499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>137</v>
@@ -8505,7 +8521,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>39264</v>
@@ -8530,7 +8546,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="12"/>
         <v>39295</v>
@@ -8551,11 +8567,11 @@
       </c>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="51">
+      <c r="K215" s="50">
         <v>39271</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>61</v>
@@ -8573,11 +8589,11 @@
       </c>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
-      <c r="K216" s="51">
+      <c r="K216" s="50">
         <v>39363</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>61</v>
@@ -8599,7 +8615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>139</v>
@@ -8621,7 +8637,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>141</v>
@@ -8643,7 +8659,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A215,1)</f>
         <v>39326</v>
@@ -8668,7 +8684,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>39356</v>
@@ -8689,11 +8705,11 @@
       </c>
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
-      <c r="K221" s="51">
+      <c r="K221" s="50">
         <v>39151</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>61</v>
@@ -8715,7 +8731,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>144</v>
@@ -8737,7 +8753,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f>EDATE(A221,1)</f>
         <v>39387</v>
@@ -8762,7 +8778,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>147</v>
@@ -8784,7 +8800,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39417</v>
@@ -8809,7 +8825,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="48" t="s">
         <v>149</v>
       </c>
@@ -8827,7 +8843,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39448</v>
       </c>
@@ -8851,7 +8867,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A228,1)</f>
         <v>39479</v>
@@ -8872,11 +8888,11 @@
       </c>
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="51">
+      <c r="K229" s="50">
         <v>39570</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>78</v>
@@ -8892,11 +8908,11 @@
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="51" t="s">
+      <c r="K230" s="50" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>61</v>
@@ -8914,11 +8930,11 @@
       </c>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="51" t="s">
+      <c r="K231" s="50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>154</v>
@@ -8938,9 +8954,9 @@
       <c r="H232" s="39"/>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="51"/>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="K232" s="50"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A229,1)</f>
         <v>39508</v>
@@ -8965,7 +8981,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>39539</v>
@@ -8986,11 +9002,11 @@
       </c>
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
-      <c r="K234" s="51">
+      <c r="K234" s="50">
         <v>39756</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>61</v>
@@ -9012,7 +9028,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>157</v>
@@ -9034,7 +9050,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A234,1)</f>
         <v>39569</v>
@@ -9059,7 +9075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>160</v>
@@ -9079,7 +9095,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>39600</v>
@@ -9104,7 +9120,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>162</v>
@@ -9126,7 +9142,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>39630</v>
@@ -9151,7 +9167,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>39661</v>
@@ -9172,11 +9188,11 @@
       </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="51">
+      <c r="K242" s="50">
         <v>39760</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>164</v>
@@ -9198,7 +9214,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39692</v>
@@ -9223,7 +9239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>61</v>
@@ -9241,11 +9257,11 @@
       </c>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="51">
+      <c r="K245" s="50">
         <v>39791</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -9265,7 +9281,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>167</v>
@@ -9287,7 +9303,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A244,1)</f>
         <v>39722</v>
@@ -9312,7 +9328,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>169</v>
@@ -9334,7 +9350,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>39753</v>
@@ -9359,7 +9375,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13">
@@ -9377,7 +9393,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A250,1)</f>
         <v>39783</v>
@@ -9402,7 +9418,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="48" t="s">
         <v>173</v>
       </c>
@@ -9420,7 +9436,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>39814</v>
       </c>
@@ -9440,7 +9456,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>61</v>
@@ -9458,11 +9474,11 @@
       </c>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="51">
+      <c r="K255" s="50">
         <v>39905</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>78</v>
@@ -9482,7 +9498,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>97</v>
@@ -9502,7 +9518,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A254,1)</f>
         <v>39845</v>
@@ -9527,7 +9543,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>177</v>
@@ -9549,7 +9565,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A258,1)</f>
         <v>39873</v>
@@ -9570,11 +9586,11 @@
       </c>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="51">
+      <c r="K260" s="50">
         <v>39906</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>178</v>
@@ -9596,7 +9612,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f>EDATE(A260,1)</f>
         <v>39904</v>
@@ -9617,11 +9633,11 @@
       </c>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
-      <c r="K262" s="51">
+      <c r="K262" s="50">
         <v>39998</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>61</v>
@@ -9643,7 +9659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>180</v>
@@ -9665,7 +9681,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A262,1)</f>
         <v>39934</v>
@@ -9690,7 +9706,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>78</v>
@@ -9710,7 +9726,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>181</v>
@@ -9732,7 +9748,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A265,1)</f>
         <v>39965</v>
@@ -9753,11 +9769,11 @@
       </c>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="51">
+      <c r="K268" s="50">
         <v>39878</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>185</v>
@@ -9779,7 +9795,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39995</v>
@@ -9800,11 +9816,11 @@
       </c>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="51">
+      <c r="K270" s="50">
         <v>40032</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>186</v>
@@ -9826,7 +9842,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>40026</v>
@@ -9847,11 +9863,11 @@
       </c>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="51">
+      <c r="K272" s="50">
         <v>40125</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>187</v>
@@ -9873,7 +9889,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40057</v>
@@ -9896,7 +9912,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>48</v>
@@ -9918,7 +9934,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A274,1)</f>
         <v>40087</v>
@@ -9939,11 +9955,11 @@
       </c>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
-      <c r="K276" s="51">
+      <c r="K276" s="50">
         <v>39854</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>141</v>
@@ -9965,7 +9981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>61</v>
@@ -9987,7 +10003,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>191</v>
@@ -10009,7 +10025,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>40118</v>
@@ -10028,11 +10044,11 @@
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="51">
+      <c r="K280" s="50">
         <v>40036</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>192</v>
@@ -10054,7 +10070,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282" si="14">EDATE(A280,1)</f>
         <v>40148</v>
@@ -10079,7 +10095,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>194</v>
@@ -10101,7 +10117,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="48" t="s">
         <v>195</v>
       </c>
@@ -10119,7 +10135,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>40179</v>
       </c>
@@ -10143,7 +10159,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A285,1)</f>
         <v>40210</v>
@@ -10168,7 +10184,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>197</v>
@@ -10190,7 +10206,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10211,11 +10227,11 @@
       </c>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="51">
+      <c r="K288" s="50">
         <v>40212</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>61</v>
@@ -10233,11 +10249,11 @@
       </c>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="51" t="s">
+      <c r="K289" s="50" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>67</v>
@@ -10253,11 +10269,11 @@
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="51" t="s">
+      <c r="K290" s="50" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>200</v>
@@ -10279,7 +10295,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f>EDATE(A288,1)</f>
         <v>40269</v>
@@ -10304,7 +10320,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" ref="A293:A297" si="15">EDATE(A292,1)</f>
         <v>40299</v>
@@ -10329,7 +10345,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>61</v>
@@ -10351,7 +10367,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>202</v>
@@ -10373,7 +10389,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f>EDATE(A293,1)</f>
         <v>40330</v>
@@ -10398,7 +10414,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="15"/>
         <v>40360</v>
@@ -10423,7 +10439,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>206</v>
@@ -10445,7 +10461,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40391</v>
@@ -10466,11 +10482,11 @@
       </c>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
-      <c r="K299" s="51">
+      <c r="K299" s="50">
         <v>40490</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>207</v>
@@ -10492,7 +10508,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f>EDATE(A299,1)</f>
         <v>40422</v>
@@ -10517,7 +10533,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>78</v>
@@ -10537,7 +10553,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>78</v>
@@ -10557,7 +10573,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>207</v>
@@ -10579,7 +10595,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A301,1)</f>
         <v>40452</v>
@@ -10604,7 +10620,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -10622,7 +10638,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>40483</v>
@@ -10647,7 +10663,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -10665,7 +10681,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A307,1)</f>
         <v>40513</v>
@@ -10690,7 +10706,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="48" t="s">
         <v>214</v>
       </c>
@@ -10708,7 +10724,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40544</v>
       </c>
@@ -10732,7 +10748,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>216</v>
@@ -10754,7 +10770,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40575</v>
@@ -10777,7 +10793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>61</v>
@@ -10799,7 +10815,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>219</v>
@@ -10821,7 +10837,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A313,1)</f>
         <v>40603</v>
@@ -10846,7 +10862,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A327" si="16">EDATE(A316,1)</f>
         <v>40634</v>
@@ -10867,11 +10883,11 @@
       </c>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="51">
+      <c r="K317" s="50">
         <v>40698</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>61</v>
@@ -10893,7 +10909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>78</v>
@@ -10913,7 +10929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>121</v>
@@ -10935,7 +10951,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>223</v>
@@ -10957,7 +10973,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>40664</v>
@@ -10978,11 +10994,11 @@
       </c>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="51">
+      <c r="K322" s="50">
         <v>40821</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>61</v>
@@ -11004,7 +11020,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>226</v>
@@ -11026,7 +11042,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>40695</v>
@@ -11051,7 +11067,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -11076,7 +11092,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f t="shared" si="16"/>
         <v>40756</v>
@@ -11097,11 +11113,11 @@
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
-      <c r="K327" s="51">
+      <c r="K327" s="50">
         <v>40855</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -11119,7 +11135,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40787</v>
@@ -11142,7 +11158,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>228</v>
@@ -11164,7 +11180,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>40817</v>
@@ -11189,7 +11205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>184</v>
@@ -11211,7 +11227,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>226</v>
@@ -11233,7 +11249,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>40848</v>
@@ -11258,7 +11274,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>126</v>
@@ -11280,7 +11296,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f>EDATE(A334,1)</f>
         <v>40878</v>
@@ -11305,7 +11321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>61</v>
@@ -11327,7 +11343,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>219</v>
@@ -11349,7 +11365,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="48" t="s">
         <v>234</v>
       </c>
@@ -11367,7 +11383,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40909</v>
       </c>
@@ -11391,7 +11407,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A340,1)</f>
         <v>40940</v>
@@ -11414,7 +11430,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>67</v>
@@ -11434,7 +11450,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -11452,7 +11468,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>40969</v>
@@ -11477,7 +11493,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" ref="A345:A358" si="17">EDATE(A344,1)</f>
         <v>41000</v>
@@ -11502,7 +11518,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f t="shared" si="17"/>
         <v>41030</v>
@@ -11527,7 +11543,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13">
@@ -11545,7 +11561,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A346,1)</f>
         <v>41061</v>
@@ -11566,7 +11582,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -11587,7 +11603,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" si="17"/>
         <v>41122</v>
@@ -11612,7 +11628,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="17"/>
         <v>41153</v>
@@ -11633,11 +11649,11 @@
       </c>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="51">
+      <c r="K351" s="50">
         <v>41008</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>78</v>
@@ -11657,7 +11673,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11675,7 +11691,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>41183</v>
@@ -11696,11 +11712,11 @@
       </c>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="51">
+      <c r="K354" s="50">
         <v>41223</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>158</v>
@@ -11722,7 +11738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>228</v>
@@ -11744,7 +11760,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f>EDATE(A354,1)</f>
         <v>41214</v>
@@ -11769,7 +11785,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f t="shared" si="17"/>
         <v>41244</v>
@@ -11794,7 +11810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>243</v>
@@ -11816,7 +11832,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="48" t="s">
         <v>244</v>
       </c>
@@ -11834,7 +11850,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41275</v>
       </c>
@@ -11854,7 +11870,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A361,1)</f>
         <v>41306</v>
@@ -11877,7 +11893,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>61</v>
@@ -11899,7 +11915,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>61</v>
@@ -11921,7 +11937,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13">
@@ -11939,7 +11955,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A362,1)</f>
         <v>41334</v>
@@ -11960,11 +11976,11 @@
       </c>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="51">
+      <c r="K366" s="50">
         <v>41368</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>248</v>
@@ -11986,7 +12002,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41365</v>
@@ -12011,7 +12027,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" ref="A369:A382" si="18">EDATE(A368,1)</f>
         <v>41395</v>
@@ -12034,7 +12050,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>85</v>
@@ -12056,7 +12072,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>41426</v>
@@ -12077,7 +12093,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="18"/>
         <v>41456</v>
@@ -12100,7 +12116,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>167</v>
@@ -12122,7 +12138,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41487</v>
@@ -12147,7 +12163,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="18"/>
         <v>41518</v>
@@ -12168,11 +12184,11 @@
       </c>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="51">
+      <c r="K375" s="50">
         <v>41342</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>61</v>
@@ -12194,7 +12210,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>78</v>
@@ -12214,7 +12230,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>206</v>
@@ -12236,7 +12252,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A375,1)</f>
         <v>41548</v>
@@ -12259,7 +12275,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13">
@@ -12277,7 +12293,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f>EDATE(A379,1)</f>
         <v>41579</v>
@@ -12302,7 +12318,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -12327,7 +12343,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>184</v>
@@ -12347,11 +12363,11 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B384" s="55"/>
+      <c r="B384" s="54"/>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
       <c r="E384" s="9"/>
@@ -12365,7 +12381,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41640</v>
       </c>
@@ -12385,7 +12401,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A385,1)</f>
         <v>41671</v>
@@ -12410,7 +12426,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>61</v>
@@ -12432,7 +12448,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12450,7 +12466,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A386,1)</f>
         <v>41699</v>
@@ -12475,7 +12491,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A398" si="19">EDATE(A389,1)</f>
         <v>41730</v>
@@ -12496,7 +12512,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -12521,7 +12537,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13">
@@ -12539,7 +12555,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>41791</v>
@@ -12560,7 +12576,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -12585,7 +12601,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -12610,7 +12626,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>102</v>
@@ -12632,7 +12648,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41883</v>
@@ -12653,7 +12669,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -12676,7 +12692,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>61</v>
@@ -12698,7 +12714,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>263</v>
@@ -12718,7 +12734,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>82</v>
@@ -12740,7 +12756,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A398,1)</f>
         <v>41944</v>
@@ -12763,7 +12779,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12781,7 +12797,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A402,1)</f>
         <v>41974</v>
@@ -12802,11 +12818,11 @@
       </c>
       <c r="I404" s="9"/>
       <c r="J404" s="11"/>
-      <c r="K404" s="51">
+      <c r="K404" s="50">
         <v>41985</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>267</v>
@@ -12828,7 +12844,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="48" t="s">
         <v>268</v>
       </c>
@@ -12846,7 +12862,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42005</v>
       </c>
@@ -12866,11 +12882,11 @@
       </c>
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
-      <c r="K407" s="51">
+      <c r="K407" s="50">
         <v>42186</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>61</v>
@@ -12892,7 +12908,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>266</v>
@@ -12914,7 +12930,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>42036</v>
@@ -12935,11 +12951,11 @@
       </c>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="51">
+      <c r="K410" s="50">
         <v>42249</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>271</v>
@@ -12961,7 +12977,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>42064</v>
@@ -12982,11 +12998,11 @@
       </c>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
-      <c r="K412" s="51">
+      <c r="K412" s="50">
         <v>42341</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>263</v>
@@ -13006,7 +13022,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>64</v>
@@ -13028,7 +13044,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>273</v>
@@ -13050,7 +13066,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>64</v>
@@ -13072,7 +13088,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>226</v>
@@ -13094,7 +13110,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A412,1)</f>
         <v>42095</v>
@@ -13119,7 +13135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -13137,7 +13153,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>42125</v>
@@ -13162,7 +13178,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>61</v>
@@ -13182,7 +13198,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>280</v>
@@ -13204,7 +13220,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f>EDATE(A420,1)</f>
         <v>42156</v>
@@ -13229,7 +13245,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>61</v>
@@ -13251,7 +13267,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>130</v>
@@ -13273,7 +13289,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f>EDATE(A423,1)</f>
         <v>42186</v>
@@ -13298,7 +13314,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f t="shared" ref="A427:A428" si="20">EDATE(A426,1)</f>
         <v>42217</v>
@@ -13323,7 +13339,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -13348,7 +13364,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>61</v>
@@ -13370,7 +13386,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>67</v>
@@ -13390,7 +13406,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13408,7 +13424,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>42278</v>
@@ -13433,7 +13449,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>61</v>
@@ -13455,7 +13471,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>289</v>
@@ -13477,7 +13493,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A432,1)</f>
         <v>42309</v>
@@ -13502,7 +13518,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>61</v>
@@ -13524,7 +13540,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>114</v>
@@ -13546,7 +13562,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>295</v>
@@ -13568,7 +13584,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A435,1)</f>
         <v>42339</v>
@@ -13593,7 +13609,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>293</v>
@@ -13615,7 +13631,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="48" t="s">
         <v>296</v>
       </c>
@@ -13633,7 +13649,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>42370</v>
       </c>
@@ -13657,7 +13673,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>85</v>
@@ -13679,7 +13695,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f>EDATE(A442,1)</f>
         <v>42401</v>
@@ -13704,7 +13720,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>61</v>
@@ -13726,7 +13742,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>228</v>
@@ -13748,7 +13764,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>42430</v>
@@ -13773,7 +13789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>138</v>
@@ -13795,7 +13811,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <f>EDATE(A447,1)</f>
         <v>42461</v>
@@ -13820,7 +13836,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f t="shared" ref="A450:A459" si="21">EDATE(A449,1)</f>
         <v>42491</v>
@@ -13845,7 +13861,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>61</v>
@@ -13867,7 +13883,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>304</v>
@@ -13889,7 +13905,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>42522</v>
@@ -13910,11 +13926,11 @@
       </c>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
-      <c r="K453" s="51">
+      <c r="K453" s="50">
         <v>42557</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>61</v>
@@ -13936,7 +13952,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>61</v>
@@ -13958,7 +13974,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>207</v>
@@ -13980,7 +13996,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A453,1)</f>
         <v>42552</v>
@@ -14005,7 +14021,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -14030,7 +14046,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>42614</v>
@@ -14055,7 +14071,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>78</v>
@@ -14075,7 +14091,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -14093,7 +14109,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42644</v>
@@ -14116,7 +14132,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>57</v>
@@ -14138,7 +14154,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>61</v>
@@ -14156,11 +14172,11 @@
       </c>
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="51">
+      <c r="K464" s="50">
         <v>42593</v>
       </c>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13">
@@ -14178,7 +14194,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A462,1)</f>
         <v>42675</v>
@@ -14203,7 +14219,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>86</v>
@@ -14225,7 +14241,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A466,1)</f>
         <v>42705</v>
@@ -14250,7 +14266,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="48" t="s">
         <v>313</v>
       </c>
@@ -14268,7 +14284,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>42736</v>
       </c>
@@ -14292,7 +14308,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A470,1)</f>
         <v>42767</v>
@@ -14315,7 +14331,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>223</v>
@@ -14337,7 +14353,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>42795</v>
@@ -14358,7 +14374,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" ref="A474:A484" si="22">EDATE(A473,1)</f>
         <v>42826</v>
@@ -14381,7 +14397,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>207</v>
@@ -14403,7 +14419,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A474,1)</f>
         <v>42856</v>
@@ -14428,7 +14444,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13">
@@ -14446,7 +14462,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <f>EDATE(A476,1)</f>
         <v>42887</v>
@@ -14471,7 +14487,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f t="shared" si="22"/>
         <v>42917</v>
@@ -14496,7 +14512,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>78</v>
@@ -14516,7 +14532,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>48</v>
@@ -14538,7 +14554,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A479,1)</f>
         <v>42948</v>
@@ -14563,7 +14579,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>42979</v>
@@ -14584,7 +14600,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -14609,7 +14625,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>57</v>
@@ -14631,7 +14647,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>61</v>
@@ -14653,7 +14669,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13">
@@ -14671,7 +14687,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A484,1)</f>
         <v>43040</v>
@@ -14694,7 +14710,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13">
@@ -14712,7 +14728,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>43070</v>
@@ -14737,7 +14753,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>61</v>
@@ -14755,11 +14771,11 @@
       </c>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="51">
+      <c r="K491" s="50">
         <v>42928</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14777,7 +14793,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="48" t="s">
         <v>323</v>
       </c>
@@ -14795,7 +14811,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43101</v>
       </c>
@@ -14815,7 +14831,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>43132</v>
@@ -14836,7 +14852,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A511" si="23">EDATE(A495,1)</f>
         <v>43160</v>
@@ -14861,7 +14877,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>78</v>
@@ -14881,7 +14897,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13">
@@ -14899,7 +14915,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A496,1)</f>
         <v>43191</v>
@@ -14920,7 +14936,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -14941,7 +14957,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -14962,7 +14978,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -14983,7 +14999,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f t="shared" si="23"/>
         <v>43313</v>
@@ -15004,11 +15020,11 @@
       </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="51">
+      <c r="K503" s="50">
         <v>43320</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>67</v>
@@ -15028,7 +15044,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20"/>
       <c r="C505" s="13">
@@ -15046,7 +15062,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f>EDATE(A503,1)</f>
         <v>43344</v>
@@ -15067,7 +15083,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -15090,7 +15106,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15112,7 +15128,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13">
@@ -15130,7 +15146,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f>EDATE(A507,1)</f>
         <v>43405</v>
@@ -15151,7 +15167,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="23"/>
         <v>43435</v>
@@ -15178,7 +15194,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="48" t="s">
         <v>330</v>
       </c>
@@ -15196,7 +15212,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>43466</v>
       </c>
@@ -15220,7 +15236,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>78</v>
@@ -15240,7 +15256,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13">
@@ -15258,7 +15274,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f>EDATE(A513,1)</f>
         <v>43497</v>
@@ -15283,7 +15299,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15301,7 +15317,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>43525</v>
@@ -15322,7 +15338,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <f t="shared" ref="A519:A526" si="24">EDATE(A518,1)</f>
         <v>43556</v>
@@ -15347,7 +15363,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15365,7 +15381,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A519,1)</f>
         <v>43586</v>
@@ -15386,7 +15402,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -15407,7 +15423,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -15428,7 +15444,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -15449,7 +15465,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -15470,7 +15486,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -15493,7 +15509,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>61</v>
@@ -15515,7 +15531,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13">
@@ -15533,7 +15549,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A526,1)</f>
         <v>43770</v>
@@ -15558,7 +15574,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -15576,7 +15592,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>43800</v>
@@ -15601,7 +15617,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="48" t="s">
         <v>338</v>
       </c>
@@ -15619,7 +15635,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>43831</v>
       </c>
@@ -15639,7 +15655,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <f>EDATE(A533,1)</f>
         <v>43862</v>
@@ -15664,7 +15680,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>78</v>
@@ -15684,7 +15700,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>59</v>
@@ -15706,7 +15722,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13">
@@ -15724,7 +15740,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f>EDATE(A534,1)</f>
         <v>43891</v>
@@ -15745,7 +15761,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f t="shared" ref="A539:A549" si="25">EDATE(A538,1)</f>
         <v>43922</v>
@@ -15766,7 +15782,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -15787,7 +15803,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -15808,7 +15824,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -15829,7 +15845,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -15850,7 +15866,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -15873,7 +15889,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -15891,7 +15907,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f>EDATE(A544,1)</f>
         <v>44105</v>
@@ -15914,7 +15930,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13">
@@ -15932,7 +15948,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>44136</v>
@@ -15953,7 +15969,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="25"/>
         <v>44166</v>
@@ -15976,7 +15992,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13">
@@ -15994,7 +16010,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="48" t="s">
         <v>346</v>
       </c>
@@ -16012,7 +16028,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44197</v>
       </c>
@@ -16032,7 +16048,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A552,1)</f>
         <v>44228</v>
@@ -16055,7 +16071,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13">
@@ -16073,7 +16089,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f>EDATE(A553,1)</f>
         <v>44256</v>
@@ -16094,7 +16110,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f t="shared" ref="A556:A562" si="26">EDATE(A555,1)</f>
         <v>44287</v>
@@ -16115,7 +16131,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="26"/>
         <v>44317</v>
@@ -16136,7 +16152,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f t="shared" si="26"/>
         <v>44348</v>
@@ -16157,7 +16173,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="26"/>
         <v>44378</v>
@@ -16178,7 +16194,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="26"/>
         <v>44409</v>
@@ -16199,7 +16215,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="26"/>
         <v>44440</v>
@@ -16220,7 +16236,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f t="shared" si="26"/>
         <v>44470</v>
@@ -16243,7 +16259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>57</v>
@@ -16265,7 +16281,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13">
@@ -16283,7 +16299,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f>EDATE(A562,1)</f>
         <v>44501</v>
@@ -16308,7 +16324,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13">
@@ -16326,7 +16342,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f>EDATE(A565,1)</f>
         <v>44531</v>
@@ -16349,7 +16365,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13">
@@ -16367,7 +16383,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="48" t="s">
         <v>352</v>
       </c>
@@ -16385,7 +16401,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>44562</v>
       </c>
@@ -16407,7 +16423,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16425,7 +16441,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>44593</v>
@@ -16446,7 +16462,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f t="shared" ref="A573:A579" si="27">EDATE(A572,1)</f>
         <v>44621</v>
@@ -16467,7 +16483,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <f t="shared" si="27"/>
         <v>44652</v>
@@ -16488,11 +16504,11 @@
       </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="51">
+      <c r="K574" s="50">
         <v>44565</v>
       </c>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16510,7 +16526,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A574,1)</f>
         <v>44682</v>
@@ -16531,7 +16547,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <f t="shared" si="27"/>
         <v>44713</v>
@@ -16552,7 +16568,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <f t="shared" si="27"/>
         <v>44743</v>
@@ -16573,7 +16589,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f t="shared" si="27"/>
         <v>44774</v>
@@ -16598,7 +16614,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13">
@@ -16616,72 +16632,94 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11">
-      <c r="A581" s="40"/>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581" s="40">
+        <v>44805</v>
+      </c>
       <c r="B581" s="20"/>
-      <c r="C581" s="13"/>
+      <c r="C581" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G581" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11">
-      <c r="A582" s="40"/>
-      <c r="B582" s="20"/>
-      <c r="C582" s="13"/>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B582" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C582" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G582" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
-    </row>
-    <row r="583" spans="1:11">
-      <c r="A583" s="40"/>
+      <c r="K582" s="50">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A583" s="40">
+        <v>44866</v>
+      </c>
       <c r="B583" s="20"/>
-      <c r="C583" s="13"/>
+      <c r="C583" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D583" s="39"/>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G583" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11">
-      <c r="A584" s="40"/>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A584" s="40">
+        <v>44896</v>
+      </c>
       <c r="B584" s="20"/>
-      <c r="C584" s="13"/>
+      <c r="C584" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D584" s="39"/>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G584" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11">
-      <c r="A585" s="40"/>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A585" s="48" t="s">
+        <v>356</v>
+      </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
@@ -16696,24 +16734,30 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11">
-      <c r="A586" s="40"/>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="40">
+        <v>44927</v>
+      </c>
       <c r="B586" s="20"/>
-      <c r="C586" s="13"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11">
-      <c r="A587" s="40"/>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A587" s="40">
+        <v>44958</v>
+      </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
@@ -16728,8 +16772,10 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11">
-      <c r="A588" s="40"/>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A588" s="40">
+        <v>44986</v>
+      </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
@@ -16744,8 +16790,10 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11">
-      <c r="A589" s="40"/>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A589" s="40">
+        <v>45017</v>
+      </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -16760,8 +16808,10 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11">
-      <c r="A590" s="40"/>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A590" s="40">
+        <v>45047</v>
+      </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
       <c r="D590" s="39"/>
@@ -16776,8 +16826,10 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11">
-      <c r="A591" s="40"/>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A591" s="40">
+        <v>45078</v>
+      </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
       <c r="D591" s="39"/>
@@ -16792,8 +16844,10 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11">
-      <c r="A592" s="40"/>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A592" s="40">
+        <v>45108</v>
+      </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
       <c r="D592" s="39"/>
@@ -16808,8 +16862,10 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11">
-      <c r="A593" s="40"/>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A593" s="40">
+        <v>45139</v>
+      </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
       <c r="D593" s="39"/>
@@ -16824,8 +16880,10 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11">
-      <c r="A594" s="40"/>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A594" s="40">
+        <v>45170</v>
+      </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
       <c r="D594" s="39"/>
@@ -16840,8 +16898,10 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11">
-      <c r="A595" s="40"/>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A595" s="40">
+        <v>45200</v>
+      </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
@@ -16856,8 +16916,10 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11">
-      <c r="A596" s="40"/>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A596" s="40">
+        <v>45231</v>
+      </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
       <c r="D596" s="39"/>
@@ -16872,8 +16934,10 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11">
-      <c r="A597" s="40"/>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A597" s="40">
+        <v>45261</v>
+      </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
       <c r="D597" s="39"/>
@@ -16888,7 +16952,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16904,7 +16968,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16920,7 +16984,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16936,7 +17000,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16952,7 +17016,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -16968,7 +17032,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -16984,7 +17048,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17000,7 +17064,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17016,7 +17080,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17032,7 +17096,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17048,21 +17112,37 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11">
-      <c r="A608" s="41"/>
-      <c r="B608" s="15"/>
-      <c r="C608" s="42"/>
-      <c r="D608" s="43"/>
-      <c r="E608" s="53"/>
-      <c r="F608" s="15"/>
-      <c r="G608" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H608" s="43"/>
-      <c r="I608" s="53"/>
-      <c r="J608" s="12"/>
-      <c r="K608" s="15"/>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A608" s="40"/>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A609" s="41"/>
+      <c r="B609" s="15"/>
+      <c r="C609" s="42"/>
+      <c r="D609" s="43"/>
+      <c r="E609" s="52"/>
+      <c r="F609" s="15"/>
+      <c r="G609" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="43"/>
+      <c r="I609" s="52"/>
+      <c r="J609" s="12"/>
+      <c r="K609" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17079,10 +17159,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17105,15 +17185,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -17127,20 +17207,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="66" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17169,7 +17249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17195,17 +17275,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17219,14 +17299,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17253,7 +17333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17279,7 +17359,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17305,7 +17385,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17331,7 +17411,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17357,7 +17437,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17383,7 +17463,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17409,7 +17489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17435,7 +17515,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17455,7 +17535,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17475,7 +17555,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17495,7 +17575,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17516,7 +17596,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17537,7 +17617,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17558,7 +17638,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17579,7 +17659,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17600,7 +17680,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17621,7 +17701,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17642,7 +17722,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17663,7 +17743,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17684,7 +17764,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17705,7 +17785,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17726,7 +17806,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17747,7 +17827,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17768,7 +17848,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17789,7 +17869,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17810,7 +17890,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17831,7 +17911,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17852,7 +17932,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17873,7 +17953,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17894,7 +17974,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17915,7 +17995,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17924,7 +18004,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17933,7 +18013,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17942,7 +18022,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17951,7 +18031,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17960,7 +18040,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17969,7 +18049,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17978,7 +18058,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17987,7 +18067,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17996,7 +18076,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18005,7 +18085,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18014,7 +18094,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18023,7 +18103,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18032,7 +18112,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18041,7 +18121,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18050,7 +18130,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18059,7 +18139,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18068,7 +18148,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18077,7 +18157,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18086,7 +18166,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18095,7 +18175,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18104,7 +18184,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18113,7 +18193,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18122,7 +18202,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18131,7 +18211,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18140,7 +18220,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18149,7 +18229,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18158,7 +18238,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18167,7 +18247,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18176,7 +18256,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
